--- a/data/hotels_by_city/Houston/Houston_shard_102.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_102.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="148">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d108010-Reviews-Comfort_Inn_East-Houston_Texas.html</t>
   </si>
   <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Comfort-Inn-East.h327382.Hotel-Information?chkin=7%2F8%2F2018&amp;chkout=7%2F9%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1530299608880&amp;cancellable=false&amp;regionId=1503&amp;vip=false&amp;c=4d5460b9-5dae-42d0-9996-188ab9b8c899&amp;mctc=9&amp;exp_dp=72.25&amp;exp_ts=1530299609359&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,318 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108010-r411161789-Comfort_Inn_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>108010</t>
+  </si>
+  <si>
+    <t>411161789</t>
+  </si>
+  <si>
+    <t>08/26/2016</t>
+  </si>
+  <si>
+    <t>A one nighter and slept like a baby</t>
+  </si>
+  <si>
+    <t>This was a quick overnight while passing back through Houston.  Room was ready when we arrived, was clean and the bed was comfortable.  In an industrial part of town, but had no issues, bathroom was clean and would stay again for a quick overnight.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108010-r353082990-Comfort_Inn_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>353082990</t>
+  </si>
+  <si>
+    <t>03/05/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent service </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I love staying at comfort inns because of their excellent  employees and service. This one is another example of great customer service oriented hotel. Very close to a seafood restaurant with a funny name Mambo seafood, don't let the name fool you ,service, menu, taste and pricing you won't find nowhere else. Thank you </t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108010-r328021291-Comfort_Inn_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>328021291</t>
+  </si>
+  <si>
+    <t>11/20/2015</t>
+  </si>
+  <si>
+    <t>Good Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a good value in the Houston area with lots of restaurants in close proximity.The hotel has updated rooms,with WIFI a business center, exercise room, outdoor pool, and a hot breakfast at a reasonable price. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108010-r265835647-Comfort_Inn_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>265835647</t>
+  </si>
+  <si>
+    <t>04/15/2015</t>
+  </si>
+  <si>
+    <t>Just what we needed at the end of a long day on the road!</t>
+  </si>
+  <si>
+    <t>Lovely property even while some remodeling was on going.  Staff just could not do enough to be accomodating.  The place is clean, located on I 10, and there is a super restaurant you can walk to just through the gate in the parking lot. We will keep this one on the top of our list for when we travel through Houston again.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108010-r265670983-Comfort_Inn_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>265670983</t>
+  </si>
+  <si>
+    <t>04/14/2015</t>
+  </si>
+  <si>
+    <t>A decent hotel at a good price</t>
+  </si>
+  <si>
+    <t>This hotel is a nice, somewhat average hotel that is perfect for a quick overnight stay.The hotel is being renovated, so the upstairs was unavailable. The downstairs rooms have already been renovated. Our room was a king bed suite with a pullout coach.  The bed was firm and comfortable and the showers were hot.  The room was clean and functional (my one small complaint is that the electrical outlets and the flat screen TV did not have any USB power connections).The staff is very friendly -- our first room reeked of cigarette smoke (despite being a non-smoking room) and the staff was apologetic and switched us to a different room).  The breakfast was good -- had biscuits and gravy with sausage.This is by no means a luxury hotel, but it is a very good place to crash at the end of the day.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is a nice, somewhat average hotel that is perfect for a quick overnight stay.The hotel is being renovated, so the upstairs was unavailable. The downstairs rooms have already been renovated. Our room was a king bed suite with a pullout coach.  The bed was firm and comfortable and the showers were hot.  The room was clean and functional (my one small complaint is that the electrical outlets and the flat screen TV did not have any USB power connections).The staff is very friendly -- our first room reeked of cigarette smoke (despite being a non-smoking room) and the staff was apologetic and switched us to a different room).  The breakfast was good -- had biscuits and gravy with sausage.This is by no means a luxury hotel, but it is a very good place to crash at the end of the day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108010-r262544651-Comfort_Inn_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>262544651</t>
+  </si>
+  <si>
+    <t>03/29/2015</t>
+  </si>
+  <si>
+    <t>Doing renovations, average place</t>
+  </si>
+  <si>
+    <t>As of this review's date, they are redoing large portions of the hotel, so keep that in mind. It is right off the interstate. We stayed on our way to Florida and on our way back, so 2 nights total that we booked well in advance for a slight discount. Our main complaint with this location was a leaking bathroom ceiling the first night. There was a slight but consistent water drip from the top of the bathroom ceiling in our first-floor room. We called the front desk and they said they would go upstairs and check on the second floor to make sure there wasn’t any water actually running upstairs.  In the morning, we awoke to a puddle in the bathroom. At checkout, I mentioned the leak again to the desk. They apologized and promised they would mark the room as out of service so nobody else would get it.  About 7 days later on our way back from Florida, we checked in again and they wanted to give us the exact same leaky room. I reminded them about the leak and they said it must have been fixed by now, because the room was coming up as active. I still asked for another room, because I doubt they had cleaned up and replaced all the water damage, mold, mildew, and whatever else was in the ceiling in only 7 days. They were nice enough to give us a...As of this review's date, they are redoing large portions of the hotel, so keep that in mind. It is right off the interstate. We stayed on our way to Florida and on our way back, so 2 nights total that we booked well in advance for a slight discount. Our main complaint with this location was a leaking bathroom ceiling the first night. There was a slight but consistent water drip from the top of the bathroom ceiling in our first-floor room. We called the front desk and they said they would go upstairs and check on the second floor to make sure there wasn’t any water actually running upstairs.  In the morning, we awoke to a puddle in the bathroom. At checkout, I mentioned the leak again to the desk. They apologized and promised they would mark the room as out of service so nobody else would get it.  About 7 days later on our way back from Florida, we checked in again and they wanted to give us the exact same leaky room. I reminded them about the leak and they said it must have been fixed by now, because the room was coming up as active. I still asked for another room, because I doubt they had cleaned up and replaced all the water damage, mold, mildew, and whatever else was in the ceiling in only 7 days. They were nice enough to give us a different room on the other side of the place. Otherwise, here are some pros: nice lobby, well-lit parking area, luggage carts, elevator, nice mini fridge coffee microwave setup with newer appliances, fridge cooled well, decent window air conditioner, alright toilet and shower, 32 inch flat screen TV with many Directv channels and special remote control, average free Wifi, charging outlets right next to the beds on the lamps, good curtains, good sound proofing, great electric door locks and 2 extra manual locks inside rooms, good beds with good sheets, plenty of pillows, average towels, decent toilet paper, good breakfast. Some cons: big stains of varying colors all over the light green carpet (in both different rooms), cheaper plastic toilet seats, slight shower drain clog, sinks are across the walkway from the bathroom not in it, average room furniture, ceiling water leak. Breakfast had microwaved sausage, bacon, and eggs kept warm, along with donuts, muffins, bagels, biscuits with hot gravy, toast, a few cereals, juices, coffees, yogurts, and fresh fruit both mornings we were there, about as nice as one could expect from this hotel company. Get to breakfast as early as you can stand it, because it gets crowded by the end. For more info and pictures, see the Internet. The neighborhood is a bit sketchy, as a police officer was present in the lobby our first night, then sat in her car right outside the main doors a long while doing her report. About what, we don’t know. Just 1 block away, we saw so many police cars speeding up and down the main boulevard in all directions, sometimes in pairs, while we ate. Plenty of questionable people walking around, too. Be careful. All this being said, we are privileged members of this company, they admitting to knowing this because they had a free “thank you” snack for members, and these were the rooms we were given.  Based on the above, I cannot recommend this location, unless it’s really close to where you physically need to be and/or you have a ton of discounts.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>As of this review's date, they are redoing large portions of the hotel, so keep that in mind. It is right off the interstate. We stayed on our way to Florida and on our way back, so 2 nights total that we booked well in advance for a slight discount. Our main complaint with this location was a leaking bathroom ceiling the first night. There was a slight but consistent water drip from the top of the bathroom ceiling in our first-floor room. We called the front desk and they said they would go upstairs and check on the second floor to make sure there wasn’t any water actually running upstairs.  In the morning, we awoke to a puddle in the bathroom. At checkout, I mentioned the leak again to the desk. They apologized and promised they would mark the room as out of service so nobody else would get it.  About 7 days later on our way back from Florida, we checked in again and they wanted to give us the exact same leaky room. I reminded them about the leak and they said it must have been fixed by now, because the room was coming up as active. I still asked for another room, because I doubt they had cleaned up and replaced all the water damage, mold, mildew, and whatever else was in the ceiling in only 7 days. They were nice enough to give us a...As of this review's date, they are redoing large portions of the hotel, so keep that in mind. It is right off the interstate. We stayed on our way to Florida and on our way back, so 2 nights total that we booked well in advance for a slight discount. Our main complaint with this location was a leaking bathroom ceiling the first night. There was a slight but consistent water drip from the top of the bathroom ceiling in our first-floor room. We called the front desk and they said they would go upstairs and check on the second floor to make sure there wasn’t any water actually running upstairs.  In the morning, we awoke to a puddle in the bathroom. At checkout, I mentioned the leak again to the desk. They apologized and promised they would mark the room as out of service so nobody else would get it.  About 7 days later on our way back from Florida, we checked in again and they wanted to give us the exact same leaky room. I reminded them about the leak and they said it must have been fixed by now, because the room was coming up as active. I still asked for another room, because I doubt they had cleaned up and replaced all the water damage, mold, mildew, and whatever else was in the ceiling in only 7 days. They were nice enough to give us a different room on the other side of the place. Otherwise, here are some pros: nice lobby, well-lit parking area, luggage carts, elevator, nice mini fridge coffee microwave setup with newer appliances, fridge cooled well, decent window air conditioner, alright toilet and shower, 32 inch flat screen TV with many Directv channels and special remote control, average free Wifi, charging outlets right next to the beds on the lamps, good curtains, good sound proofing, great electric door locks and 2 extra manual locks inside rooms, good beds with good sheets, plenty of pillows, average towels, decent toilet paper, good breakfast. Some cons: big stains of varying colors all over the light green carpet (in both different rooms), cheaper plastic toilet seats, slight shower drain clog, sinks are across the walkway from the bathroom not in it, average room furniture, ceiling water leak. Breakfast had microwaved sausage, bacon, and eggs kept warm, along with donuts, muffins, bagels, biscuits with hot gravy, toast, a few cereals, juices, coffees, yogurts, and fresh fruit both mornings we were there, about as nice as one could expect from this hotel company. Get to breakfast as early as you can stand it, because it gets crowded by the end. For more info and pictures, see the Internet. The neighborhood is a bit sketchy, as a police officer was present in the lobby our first night, then sat in her car right outside the main doors a long while doing her report. About what, we don’t know. Just 1 block away, we saw so many police cars speeding up and down the main boulevard in all directions, sometimes in pairs, while we ate. Plenty of questionable people walking around, too. Be careful. All this being said, we are privileged members of this company, they admitting to knowing this because they had a free “thank you” snack for members, and these were the rooms we were given.  Based on the above, I cannot recommend this location, unless it’s really close to where you physically need to be and/or you have a ton of discounts.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108010-r213121082-Comfort_Inn_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>213121082</t>
+  </si>
+  <si>
+    <t>07/01/2014</t>
+  </si>
+  <si>
+    <t>Fine Place to Stay in East Houston</t>
+  </si>
+  <si>
+    <t>We traveled from New Mexico to New Orleans and stopped at the Comfort Inn East in Houston on our way.  We wanted a place on the East side of Houston so we would not have to deal with morning traffic as we headed East the next morning and that worked out well.  Traffic in Houston is almost as bad as any big city (except Los Angeles which is the worst).  The staff was very helpful, the room was very clean and the breakfast was fine.  Definitely worth a stay if you're traveling through Houston.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108010-r205007946-Comfort_Inn_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>205007946</t>
+  </si>
+  <si>
+    <t>05/10/2014</t>
+  </si>
+  <si>
+    <t>Much nicer then I expected!</t>
+  </si>
+  <si>
+    <t>I had to attend a three day training class in Houston and due to some Conference in Houston everything apparently was booked, so my Company placed me in this Hotel.  This was my first time in Houston, so I had no idea what to expect.  The area was along the Freeway and appeared to be light Industry, businesses and restaurants and seemed to be pretty safe.  The parking lot was large enough and accommodating and well lit and as a lone woman I felt safe here.  The Desk Clerk that checked me in was very friendly and helpful and the process was quick and painless.  I inquired about a local restaurant for a quick supper and the desk clerk referred me to the restaurant along the frontage road in front of the hotel - which turned out to be a very good choice!  The lobby was spacious and clean and an elevator in a two-story hotel was a definite plus.  My King size bed room was clean and neat with a spotless bathroom and a very comfortable bed.  Everything that I required was here including a refrigerator, coffee maker and numerous plugs in every lamp for all the electronics.  Wi-Fi was included and worked very well and was not an issue to sign on (as a lot of hotels are!).  Breakfast was very good and included a lot of choices and yogurt and fresh fruit and also waffles and sausages....I had to attend a three day training class in Houston and due to some Conference in Houston everything apparently was booked, so my Company placed me in this Hotel.  This was my first time in Houston, so I had no idea what to expect.  The area was along the Freeway and appeared to be light Industry, businesses and restaurants and seemed to be pretty safe.  The parking lot was large enough and accommodating and well lit and as a lone woman I felt safe here.  The Desk Clerk that checked me in was very friendly and helpful and the process was quick and painless.  I inquired about a local restaurant for a quick supper and the desk clerk referred me to the restaurant along the frontage road in front of the hotel - which turned out to be a very good choice!  The lobby was spacious and clean and an elevator in a two-story hotel was a definite plus.  My King size bed room was clean and neat with a spotless bathroom and a very comfortable bed.  Everything that I required was here including a refrigerator, coffee maker and numerous plugs in every lamp for all the electronics.  Wi-Fi was included and worked very well and was not an issue to sign on (as a lot of hotels are!).  Breakfast was very good and included a lot of choices and yogurt and fresh fruit and also waffles and sausages.  The juices were good and all in all I felt the presentation was more than adequate.  The only thing I wasn't sure of was the pool - rather stark and placed out in the middle of the parking lot.  When I checked it out at 9:30 PM after coming in from a long day, it was jammed with tons of kids and radios and bar-b-ques going - looked like a large family gathering!  I am still not sure where all the people came from, since all I actually saw in the Hotel were business people like myself!  I didn't really care about the pool, but it was rather odd - like all those people had been dropped in from another location.......All in all, my experience was good, I felt safe and everything was clean and quiet....PLUS - the fresh cookies in the lobby was a plus!  I would stay here again, if I needed to come back and couldn't get closer to downtown (the commute in the morning was a pain!).  Definitely can't blame the hotel for THAT!.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I had to attend a three day training class in Houston and due to some Conference in Houston everything apparently was booked, so my Company placed me in this Hotel.  This was my first time in Houston, so I had no idea what to expect.  The area was along the Freeway and appeared to be light Industry, businesses and restaurants and seemed to be pretty safe.  The parking lot was large enough and accommodating and well lit and as a lone woman I felt safe here.  The Desk Clerk that checked me in was very friendly and helpful and the process was quick and painless.  I inquired about a local restaurant for a quick supper and the desk clerk referred me to the restaurant along the frontage road in front of the hotel - which turned out to be a very good choice!  The lobby was spacious and clean and an elevator in a two-story hotel was a definite plus.  My King size bed room was clean and neat with a spotless bathroom and a very comfortable bed.  Everything that I required was here including a refrigerator, coffee maker and numerous plugs in every lamp for all the electronics.  Wi-Fi was included and worked very well and was not an issue to sign on (as a lot of hotels are!).  Breakfast was very good and included a lot of choices and yogurt and fresh fruit and also waffles and sausages....I had to attend a three day training class in Houston and due to some Conference in Houston everything apparently was booked, so my Company placed me in this Hotel.  This was my first time in Houston, so I had no idea what to expect.  The area was along the Freeway and appeared to be light Industry, businesses and restaurants and seemed to be pretty safe.  The parking lot was large enough and accommodating and well lit and as a lone woman I felt safe here.  The Desk Clerk that checked me in was very friendly and helpful and the process was quick and painless.  I inquired about a local restaurant for a quick supper and the desk clerk referred me to the restaurant along the frontage road in front of the hotel - which turned out to be a very good choice!  The lobby was spacious and clean and an elevator in a two-story hotel was a definite plus.  My King size bed room was clean and neat with a spotless bathroom and a very comfortable bed.  Everything that I required was here including a refrigerator, coffee maker and numerous plugs in every lamp for all the electronics.  Wi-Fi was included and worked very well and was not an issue to sign on (as a lot of hotels are!).  Breakfast was very good and included a lot of choices and yogurt and fresh fruit and also waffles and sausages.  The juices were good and all in all I felt the presentation was more than adequate.  The only thing I wasn't sure of was the pool - rather stark and placed out in the middle of the parking lot.  When I checked it out at 9:30 PM after coming in from a long day, it was jammed with tons of kids and radios and bar-b-ques going - looked like a large family gathering!  I am still not sure where all the people came from, since all I actually saw in the Hotel were business people like myself!  I didn't really care about the pool, but it was rather odd - like all those people had been dropped in from another location.......All in all, my experience was good, I felt safe and everything was clean and quiet....PLUS - the fresh cookies in the lobby was a plus!  I would stay here again, if I needed to come back and couldn't get closer to downtown (the commute in the morning was a pain!).  Definitely can't blame the hotel for THAT!.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108010-r161690504-Comfort_Inn_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>161690504</t>
+  </si>
+  <si>
+    <t>05/24/2013</t>
+  </si>
+  <si>
+    <t>Staff went above and beyond!</t>
+  </si>
+  <si>
+    <t>My husband and I used our Choice Privleges points to stay here while in town for one night. When we checked in, we were given a little snack kit of a bottled water, cheetos, and a granola bar. I don't know if this was because we were using points or because we are choice privleges members. Either way, it was a nice treat after a long drive from Ruston, LA. The room was very neat and clean. There were chocolate candies left on the pillows for us, firm AND soft pillows, bedside lamps with additional outlets, and i-Home alarm clock! The lamps were so convenient, though. It is so annoying to have to dig behind the bed looking for an outlet to charge our stuff. Also, the TV had a ton of available channels. Much more than your average hotel. The water pressure in the shower was excellent. The breakfast was above average. Finally, on the morning we were checking out, Auser helped my husband get his resume printed in his office because the one in the business center wasn't working right. Talk about above and beyond! Should we have to return to Houston for anything else, this is where we will be staying!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>My husband and I used our Choice Privleges points to stay here while in town for one night. When we checked in, we were given a little snack kit of a bottled water, cheetos, and a granola bar. I don't know if this was because we were using points or because we are choice privleges members. Either way, it was a nice treat after a long drive from Ruston, LA. The room was very neat and clean. There were chocolate candies left on the pillows for us, firm AND soft pillows, bedside lamps with additional outlets, and i-Home alarm clock! The lamps were so convenient, though. It is so annoying to have to dig behind the bed looking for an outlet to charge our stuff. Also, the TV had a ton of available channels. Much more than your average hotel. The water pressure in the shower was excellent. The breakfast was above average. Finally, on the morning we were checking out, Auser helped my husband get his resume printed in his office because the one in the business center wasn't working right. Talk about above and beyond! Should we have to return to Houston for anything else, this is where we will be staying!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108010-r118664559-Comfort_Inn_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>118664559</t>
+  </si>
+  <si>
+    <t>09/27/2011</t>
+  </si>
+  <si>
+    <t>Great Stay!</t>
+  </si>
+  <si>
+    <t>I recently stayed at this Comfort Inn on a short business trip to Houston. Being a frequent business traveler I have stayed in hotels of varying types, and I must say this was a fabulous stay! Great location, friendly staff, the breakfast in the morning was better than the typical continental breakfast I receive at other hotel chains....overall a positive experience....would definitely recommend to other business or leisure travelers.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>gmtx427, General Manager at Comfort Inn East, responded to this reviewResponded September 29, 2011</t>
+  </si>
+  <si>
+    <t>Responded September 29, 2011</t>
+  </si>
+  <si>
+    <t>I recently stayed at this Comfort Inn on a short business trip to Houston. Being a frequent business traveler I have stayed in hotels of varying types, and I must say this was a fabulous stay! Great location, friendly staff, the breakfast in the morning was better than the typical continental breakfast I receive at other hotel chains....overall a positive experience....would definitely recommend to other business or leisure travelers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108010-r110927881-Comfort_Inn_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>110927881</t>
+  </si>
+  <si>
+    <t>06/01/2011</t>
+  </si>
+  <si>
+    <t>Got worse and worse</t>
+  </si>
+  <si>
+    <t>The only feature this hotel had was the availability of truck parking.  It starts off with a horrific breakfast, it is increadibly limited and the items that are out were either stale or had been burnt while in the warmer (meaning they don't change out what gets set out at 6am).  Then there is the housekeeping, they are creepy.  They would scurry around, giving supisous looks to guests coming and going.  Our towels kept getting taken out and not replaced.  After 3 days wwe had only a bathmat and 1 towel left.  But to top it all off, the housekeeping moved a pizza box off the trashcan, left it in our room and we were invaded by fire ant.  FIRE ANTS!MoreShow less</t>
+  </si>
+  <si>
+    <t>gmtx427, General Manager at Comfort Inn East, responded to this reviewResponded September 7, 2011</t>
+  </si>
+  <si>
+    <t>Responded September 7, 2011</t>
+  </si>
+  <si>
+    <t>The only feature this hotel had was the availability of truck parking.  It starts off with a horrific breakfast, it is increadibly limited and the items that are out were either stale or had been burnt while in the warmer (meaning they don't change out what gets set out at 6am).  Then there is the housekeeping, they are creepy.  They would scurry around, giving supisous looks to guests coming and going.  Our towels kept getting taken out and not replaced.  After 3 days wwe had only a bathmat and 1 towel left.  But to top it all off, the housekeeping moved a pizza box off the trashcan, left it in our room and we were invaded by fire ant.  FIRE ANTS!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108010-r100139286-Comfort_Inn_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>100139286</t>
+  </si>
+  <si>
+    <t>03/14/2011</t>
+  </si>
+  <si>
+    <t>Impressed/Motel very underrated</t>
+  </si>
+  <si>
+    <t>Motel should be listed 5 Star!  We were impressed with every aspect of this motel. The staff was very friendly &amp; going that"extra mile" to help you. The motel itself was super clean and had the appearance inside &amp; out of a more expensive motel.  Just can't say enough good things about our stay at this motel.  Our stay was a most  enjoyable experience!  Highly recommend it to anyone staying in Houston.</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108010-r34039931-Comfort_Inn_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>34039931</t>
+  </si>
+  <si>
+    <t>07/06/2009</t>
+  </si>
+  <si>
+    <t>A Great Place to Stay</t>
+  </si>
+  <si>
+    <t>This hotel was easy to find off of the interstate, and located right next door to a gas station and a Luby's Cafeteria. The room was clean and the staff went out of their way to be helpful and friendly. The breakfast was better than the usual Comfort Inn fare and the waffles were made in a Texas shaped waffle iron (would be great for kids). I would definitely stay here again and the price was right!</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108010-r24568684-Comfort_Inn_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>24568684</t>
+  </si>
+  <si>
+    <t>02/14/2009</t>
+  </si>
+  <si>
+    <t>Loved Our Stay At The Comfort Inn</t>
+  </si>
+  <si>
+    <t>We Stayed at the Comfort Inn  in East Houston and it was an exceptional experience. The room we stayed in was very nice . The staff was very professional and friendly and the room was priced right!  I would highly recommend this hotel for anyone. I would give this hotel a 5 star rating</t>
+  </si>
+  <si>
+    <t>February 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108010-r22849894-Comfort_Inn_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>22849894</t>
+  </si>
+  <si>
+    <t>12/19/2008</t>
+  </si>
+  <si>
+    <t>Basic but good</t>
+  </si>
+  <si>
+    <t>I found this hotel to be quite clean, and quiet, even though itis next to I-10 and my window faced the road.  They are set back from the road a bit, behind a gas station.The room I was in was clean. The furniture wasall very basic but that's fine by me.  Free wireless and free100 Mb/s wired connections.  The room had both a fridgeand a microwave.  The bed was firm.The breakfast was not too bad, typical for this kind of accomodation.I have stayed in other Comfort Inn/Suites in the Houston area.I am generally unimpressed with Houston hotels, since theytend to be either very expensive and not that great, or else if they are reasonably priced then they are quite low quality.  This Comfort Inn stands out as both reasonably priced and reasonably good quality. I will be going there again on future trips.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2008</t>
+  </si>
+  <si>
+    <t>I found this hotel to be quite clean, and quiet, even though itis next to I-10 and my window faced the road.  They are set back from the road a bit, behind a gas station.The room I was in was clean. The furniture wasall very basic but that's fine by me.  Free wireless and free100 Mb/s wired connections.  The room had both a fridgeand a microwave.  The bed was firm.The breakfast was not too bad, typical for this kind of accomodation.I have stayed in other Comfort Inn/Suites in the Houston area.I am generally unimpressed with Houston hotels, since theytend to be either very expensive and not that great, or else if they are reasonably priced then they are quite low quality.  This Comfort Inn stands out as both reasonably priced and reasonably good quality. I will be going there again on future trips.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +853,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +885,1028 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>38674</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>38674</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>38674</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>38674</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>38674</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>70</v>
+      </c>
+      <c r="O6" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>38674</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>38674</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>38674</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O9" t="s">
+        <v>97</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>38674</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>104</v>
+      </c>
+      <c r="O10" t="s">
+        <v>97</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>38674</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>107</v>
+      </c>
+      <c r="J11" t="s">
+        <v>108</v>
+      </c>
+      <c r="K11" t="s">
+        <v>109</v>
+      </c>
+      <c r="L11" t="s">
+        <v>110</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>111</v>
+      </c>
+      <c r="O11" t="s">
+        <v>97</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>112</v>
+      </c>
+      <c r="X11" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>38674</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12" t="s">
+        <v>118</v>
+      </c>
+      <c r="L12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>2</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>120</v>
+      </c>
+      <c r="X12" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>38674</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>124</v>
+      </c>
+      <c r="J13" t="s">
+        <v>125</v>
+      </c>
+      <c r="K13" t="s">
+        <v>126</v>
+      </c>
+      <c r="L13" t="s">
+        <v>127</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>128</v>
+      </c>
+      <c r="O13" t="s">
+        <v>71</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>38674</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>130</v>
+      </c>
+      <c r="J14" t="s">
+        <v>131</v>
+      </c>
+      <c r="K14" t="s">
+        <v>132</v>
+      </c>
+      <c r="L14" t="s">
+        <v>133</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>134</v>
+      </c>
+      <c r="O14" t="s">
+        <v>97</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>38674</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>135</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>136</v>
+      </c>
+      <c r="J15" t="s">
+        <v>137</v>
+      </c>
+      <c r="K15" t="s">
+        <v>138</v>
+      </c>
+      <c r="L15" t="s">
+        <v>139</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>140</v>
+      </c>
+      <c r="O15" t="s">
+        <v>97</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>38674</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>141</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>142</v>
+      </c>
+      <c r="J16" t="s">
+        <v>143</v>
+      </c>
+      <c r="K16" t="s">
+        <v>144</v>
+      </c>
+      <c r="L16" t="s">
+        <v>145</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>146</v>
+      </c>
+      <c r="O16" t="s">
+        <v>97</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_102.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_102.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="212">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,57 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/06/2018</t>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108010-r597728654-Comfort_Inn_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>108010</t>
+  </si>
+  <si>
+    <t>597728654</t>
+  </si>
+  <si>
+    <t>07/19/2018</t>
+  </si>
+  <si>
+    <t>Great property!</t>
+  </si>
+  <si>
+    <t>I highly recommend this property!Well maintained and clean inside and out!  Bright and cheery, great decor, and very welcoming.  The rooms are clean and well-appointed!  Comfy beds, refreshing showers...we had a delightful stay!</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108010-r576802700-Comfort_Inn_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>576802700</t>
+  </si>
+  <si>
+    <t>04/30/2018</t>
+  </si>
+  <si>
+    <t>Lovely hotel</t>
+  </si>
+  <si>
+    <t>Had two nights here. Room lovely and spotless. Josie who checked us in was friendly welcoming and efficient. All staff very friendly. Good base for S an Jacinto monument. I10 very busy at times which sometimes made travel a bit stressful.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108010-r411161789-Comfort_Inn_East-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>108010</t>
-  </si>
-  <si>
     <t>411161789</t>
   </si>
   <si>
@@ -213,6 +252,45 @@
     <t xml:space="preserve">This is a good value in the Houston area with lots of restaurants in close proximity.The hotel has updated rooms,with WIFI a business center, exercise room, outdoor pool, and a hot breakfast at a reasonable price. </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108010-r318974670-Comfort_Inn_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>318974670</t>
+  </si>
+  <si>
+    <t>10/15/2015</t>
+  </si>
+  <si>
+    <t>Good Hotel and good service</t>
+  </si>
+  <si>
+    <t>I feel the hotel is in a great location . (not so good part of town , still good and safe) For food locations. There are multiple places to eat close to the hotel. The customer service is great at this hotel . They are currently remodeling and improving. When in Houston, it's were i always stay.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108010-r283154338-Comfort_Inn_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>283154338</t>
+  </si>
+  <si>
+    <t>06/26/2015</t>
+  </si>
+  <si>
+    <t>Outstanding customer service</t>
+  </si>
+  <si>
+    <t>Riccardo checked us in. He was very nice. He gave us a great rate; substantially better than AAA. We even got "welcome" refreshments for being choice rewards members. The hotel has easy access. They are in the process of tenovation. The new rooms are very comfortable and clean.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108010-r265835647-Comfort_Inn_East-Houston_Texas.html</t>
   </si>
   <si>
@@ -231,9 +309,6 @@
     <t>April 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108010-r265670983-Comfort_Inn_East-Houston_Texas.html</t>
   </si>
   <si>
@@ -273,6 +348,48 @@
     <t>As of this review's date, they are redoing large portions of the hotel, so keep that in mind. It is right off the interstate. We stayed on our way to Florida and on our way back, so 2 nights total that we booked well in advance for a slight discount. Our main complaint with this location was a leaking bathroom ceiling the first night. There was a slight but consistent water drip from the top of the bathroom ceiling in our first-floor room. We called the front desk and they said they would go upstairs and check on the second floor to make sure there wasn’t any water actually running upstairs.  In the morning, we awoke to a puddle in the bathroom. At checkout, I mentioned the leak again to the desk. They apologized and promised they would mark the room as out of service so nobody else would get it.  About 7 days later on our way back from Florida, we checked in again and they wanted to give us the exact same leaky room. I reminded them about the leak and they said it must have been fixed by now, because the room was coming up as active. I still asked for another room, because I doubt they had cleaned up and replaced all the water damage, mold, mildew, and whatever else was in the ceiling in only 7 days. They were nice enough to give us a...As of this review's date, they are redoing large portions of the hotel, so keep that in mind. It is right off the interstate. We stayed on our way to Florida and on our way back, so 2 nights total that we booked well in advance for a slight discount. Our main complaint with this location was a leaking bathroom ceiling the first night. There was a slight but consistent water drip from the top of the bathroom ceiling in our first-floor room. We called the front desk and they said they would go upstairs and check on the second floor to make sure there wasn’t any water actually running upstairs.  In the morning, we awoke to a puddle in the bathroom. At checkout, I mentioned the leak again to the desk. They apologized and promised they would mark the room as out of service so nobody else would get it.  About 7 days later on our way back from Florida, we checked in again and they wanted to give us the exact same leaky room. I reminded them about the leak and they said it must have been fixed by now, because the room was coming up as active. I still asked for another room, because I doubt they had cleaned up and replaced all the water damage, mold, mildew, and whatever else was in the ceiling in only 7 days. They were nice enough to give us a different room on the other side of the place. Otherwise, here are some pros: nice lobby, well-lit parking area, luggage carts, elevator, nice mini fridge coffee microwave setup with newer appliances, fridge cooled well, decent window air conditioner, alright toilet and shower, 32 inch flat screen TV with many Directv channels and special remote control, average free Wifi, charging outlets right next to the beds on the lamps, good curtains, good sound proofing, great electric door locks and 2 extra manual locks inside rooms, good beds with good sheets, plenty of pillows, average towels, decent toilet paper, good breakfast. Some cons: big stains of varying colors all over the light green carpet (in both different rooms), cheaper plastic toilet seats, slight shower drain clog, sinks are across the walkway from the bathroom not in it, average room furniture, ceiling water leak. Breakfast had microwaved sausage, bacon, and eggs kept warm, along with donuts, muffins, bagels, biscuits with hot gravy, toast, a few cereals, juices, coffees, yogurts, and fresh fruit both mornings we were there, about as nice as one could expect from this hotel company. Get to breakfast as early as you can stand it, because it gets crowded by the end. For more info and pictures, see the Internet. The neighborhood is a bit sketchy, as a police officer was present in the lobby our first night, then sat in her car right outside the main doors a long while doing her report. About what, we don’t know. Just 1 block away, we saw so many police cars speeding up and down the main boulevard in all directions, sometimes in pairs, while we ate. Plenty of questionable people walking around, too. Be careful. All this being said, we are privileged members of this company, they admitting to knowing this because they had a free “thank you” snack for members, and these were the rooms we were given.  Based on the above, I cannot recommend this location, unless it’s really close to where you physically need to be and/or you have a ton of discounts.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108010-r240396319-Comfort_Inn_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>240396319</t>
+  </si>
+  <si>
+    <t>11/18/2014</t>
+  </si>
+  <si>
+    <t>QUIET NIGHT, GREAT BEDS, FRIENDLY STAFFERS, GOOD BREAKFAST</t>
+  </si>
+  <si>
+    <t>COMFORT INN EAST HOUSTON – 1016 Maxey Road, Houston, TX 77015; 713-455-8888We spent the night of 11.14.14 at this excellent hotel. For those travelers who need to stay in east Houston for easy access to I-10, this hotel is a great choice.  We were greeted by a friendly staffer who gave us a goody basket.  When I asked for a glass of milk, he kindly brought me one.  The lobby was attractive, well lit with security cameras easily seen by the office staff.  We had a room with 2 queen beds that had comfortable mattresses, lots of fluffy pillows, clean sheets, and comfy blankets. The room was large with a corner closet; lots of wall outlets; two chairs; nice desk with Wi-Fi connections; two lamps with plug-in outlets and alarm clock; large piece of furniture that had ample tabletop space, flat-screen TV, dresser drawers; microwave oven/refrigerator; large bathroom shower with hand-held shower sprayer, gripper tapes in bottom of shower, halo shower curtain, a number of large towels/hand towels/washrags, ample room around sink.  The free breakfast was excellent with sausage, eggs, bacon, waffles, scrambled and hard-boiled eggs, juices, cereal, fruit, muffins, donuts, biscuits/gravy, yogurt, 2% and whole white milk, coffee, hot-chocolate.  Checkout was a snap with a friendly staffer wishing us well on our trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>COMFORT INN EAST HOUSTON – 1016 Maxey Road, Houston, TX 77015; 713-455-8888We spent the night of 11.14.14 at this excellent hotel. For those travelers who need to stay in east Houston for easy access to I-10, this hotel is a great choice.  We were greeted by a friendly staffer who gave us a goody basket.  When I asked for a glass of milk, he kindly brought me one.  The lobby was attractive, well lit with security cameras easily seen by the office staff.  We had a room with 2 queen beds that had comfortable mattresses, lots of fluffy pillows, clean sheets, and comfy blankets. The room was large with a corner closet; lots of wall outlets; two chairs; nice desk with Wi-Fi connections; two lamps with plug-in outlets and alarm clock; large piece of furniture that had ample tabletop space, flat-screen TV, dresser drawers; microwave oven/refrigerator; large bathroom shower with hand-held shower sprayer, gripper tapes in bottom of shower, halo shower curtain, a number of large towels/hand towels/washrags, ample room around sink.  The free breakfast was excellent with sausage, eggs, bacon, waffles, scrambled and hard-boiled eggs, juices, cereal, fruit, muffins, donuts, biscuits/gravy, yogurt, 2% and whole white milk, coffee, hot-chocolate.  Checkout was a snap with a friendly staffer wishing us well on our trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108010-r217997289-Comfort_Inn_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>217997289</t>
+  </si>
+  <si>
+    <t>07/28/2014</t>
+  </si>
+  <si>
+    <t>Quiet, Affordable, Lots of Hot Water, and a Wonderful Bed!</t>
+  </si>
+  <si>
+    <t>We took a trip this past weekend to visit relatives and our son recommended the Comfort Inn hotels.  We had not traveled outside our city in awhile and had to get familar with the Houston area and weren't especially impressed with the area, but this was the closest comfort inn (that had rooms available) to our Pasadena destination.  I read a bunch of online reviews before I made a final decision and because we were only going to stay one night, decided to give it a try.  Wow, we were pleasantly surprised!  It was quiet, I felt safe and secure and the staff went out of their way to help us &gt; I brought a bottle of wine and realized we had not brought an opener.  I thought well nothing ventured, nothing gained, and decided to ask the front desk staff if by some chance they had one.  To my surprise, Tania was able to get one for us, lol, and it made our evening!  The bed was so wonderful we slept in the next day missing the free waffle/egg breakfast that was to be served, oh well!!  The internet was so easy to get onto, and although we don't watch much TV, it did have a huge number of channels to watch.  There was plenty of hot water and it was clean.  I love the little packaged candies on the bed when we arrived and also in the lobby,...We took a trip this past weekend to visit relatives and our son recommended the Comfort Inn hotels.  We had not traveled outside our city in awhile and had to get familar with the Houston area and weren't especially impressed with the area, but this was the closest comfort inn (that had rooms available) to our Pasadena destination.  I read a bunch of online reviews before I made a final decision and because we were only going to stay one night, decided to give it a try.  Wow, we were pleasantly surprised!  It was quiet, I felt safe and secure and the staff went out of their way to help us &gt; I brought a bottle of wine and realized we had not brought an opener.  I thought well nothing ventured, nothing gained, and decided to ask the front desk staff if by some chance they had one.  To my surprise, Tania was able to get one for us, lol, and it made our evening!  The bed was so wonderful we slept in the next day missing the free waffle/egg breakfast that was to be served, oh well!!  The internet was so easy to get onto, and although we don't watch much TV, it did have a huge number of channels to watch.  There was plenty of hot water and it was clean.  I love the little packaged candies on the bed when we arrived and also in the lobby, nice touch.  When we come back to the area in the future, we intend to stay here again, and at less than half the price of the LQ we were originally going to book with, it made it all that much better!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>We took a trip this past weekend to visit relatives and our son recommended the Comfort Inn hotels.  We had not traveled outside our city in awhile and had to get familar with the Houston area and weren't especially impressed with the area, but this was the closest comfort inn (that had rooms available) to our Pasadena destination.  I read a bunch of online reviews before I made a final decision and because we were only going to stay one night, decided to give it a try.  Wow, we were pleasantly surprised!  It was quiet, I felt safe and secure and the staff went out of their way to help us &gt; I brought a bottle of wine and realized we had not brought an opener.  I thought well nothing ventured, nothing gained, and decided to ask the front desk staff if by some chance they had one.  To my surprise, Tania was able to get one for us, lol, and it made our evening!  The bed was so wonderful we slept in the next day missing the free waffle/egg breakfast that was to be served, oh well!!  The internet was so easy to get onto, and although we don't watch much TV, it did have a huge number of channels to watch.  There was plenty of hot water and it was clean.  I love the little packaged candies on the bed when we arrived and also in the lobby,...We took a trip this past weekend to visit relatives and our son recommended the Comfort Inn hotels.  We had not traveled outside our city in awhile and had to get familar with the Houston area and weren't especially impressed with the area, but this was the closest comfort inn (that had rooms available) to our Pasadena destination.  I read a bunch of online reviews before I made a final decision and because we were only going to stay one night, decided to give it a try.  Wow, we were pleasantly surprised!  It was quiet, I felt safe and secure and the staff went out of their way to help us &gt; I brought a bottle of wine and realized we had not brought an opener.  I thought well nothing ventured, nothing gained, and decided to ask the front desk staff if by some chance they had one.  To my surprise, Tania was able to get one for us, lol, and it made our evening!  The bed was so wonderful we slept in the next day missing the free waffle/egg breakfast that was to be served, oh well!!  The internet was so easy to get onto, and although we don't watch much TV, it did have a huge number of channels to watch.  There was plenty of hot water and it was clean.  I love the little packaged candies on the bed when we arrived and also in the lobby, nice touch.  When we come back to the area in the future, we intend to stay here again, and at less than half the price of the LQ we were originally going to book with, it made it all that much better!!!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108010-r213121082-Comfort_Inn_East-Houston_Texas.html</t>
   </si>
   <si>
@@ -309,9 +426,6 @@
     <t>May 2014</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>I had to attend a three day training class in Houston and due to some Conference in Houston everything apparently was booked, so my Company placed me in this Hotel.  This was my first time in Houston, so I had no idea what to expect.  The area was along the Freeway and appeared to be light Industry, businesses and restaurants and seemed to be pretty safe.  The parking lot was large enough and accommodating and well lit and as a lone woman I felt safe here.  The Desk Clerk that checked me in was very friendly and helpful and the process was quick and painless.  I inquired about a local restaurant for a quick supper and the desk clerk referred me to the restaurant along the frontage road in front of the hotel - which turned out to be a very good choice!  The lobby was spacious and clean and an elevator in a two-story hotel was a definite plus.  My King size bed room was clean and neat with a spotless bathroom and a very comfortable bed.  Everything that I required was here including a refrigerator, coffee maker and numerous plugs in every lamp for all the electronics.  Wi-Fi was included and worked very well and was not an issue to sign on (as a lot of hotels are!).  Breakfast was very good and included a lot of choices and yogurt and fresh fruit and also waffles and sausages....I had to attend a three day training class in Houston and due to some Conference in Houston everything apparently was booked, so my Company placed me in this Hotel.  This was my first time in Houston, so I had no idea what to expect.  The area was along the Freeway and appeared to be light Industry, businesses and restaurants and seemed to be pretty safe.  The parking lot was large enough and accommodating and well lit and as a lone woman I felt safe here.  The Desk Clerk that checked me in was very friendly and helpful and the process was quick and painless.  I inquired about a local restaurant for a quick supper and the desk clerk referred me to the restaurant along the frontage road in front of the hotel - which turned out to be a very good choice!  The lobby was spacious and clean and an elevator in a two-story hotel was a definite plus.  My King size bed room was clean and neat with a spotless bathroom and a very comfortable bed.  Everything that I required was here including a refrigerator, coffee maker and numerous plugs in every lamp for all the electronics.  Wi-Fi was included and worked very well and was not an issue to sign on (as a lot of hotels are!).  Breakfast was very good and included a lot of choices and yogurt and fresh fruit and also waffles and sausages.  The juices were good and all in all I felt the presentation was more than adequate.  The only thing I wasn't sure of was the pool - rather stark and placed out in the middle of the parking lot.  When I checked it out at 9:30 PM after coming in from a long day, it was jammed with tons of kids and radios and bar-b-ques going - looked like a large family gathering!  I am still not sure where all the people came from, since all I actually saw in the Hotel were business people like myself!  I didn't really care about the pool, but it was rather odd - like all those people had been dropped in from another location.......All in all, my experience was good, I felt safe and everything was clean and quiet....PLUS - the fresh cookies in the lobby was a plus!  I would stay here again, if I needed to come back and couldn't get closer to downtown (the commute in the morning was a pain!).  Definitely can't blame the hotel for THAT!.More</t>
   </si>
   <si>
@@ -336,6 +450,39 @@
     <t>My husband and I used our Choice Privleges points to stay here while in town for one night. When we checked in, we were given a little snack kit of a bottled water, cheetos, and a granola bar. I don't know if this was because we were using points or because we are choice privleges members. Either way, it was a nice treat after a long drive from Ruston, LA. The room was very neat and clean. There were chocolate candies left on the pillows for us, firm AND soft pillows, bedside lamps with additional outlets, and i-Home alarm clock! The lamps were so convenient, though. It is so annoying to have to dig behind the bed looking for an outlet to charge our stuff. Also, the TV had a ton of available channels. Much more than your average hotel. The water pressure in the shower was excellent. The breakfast was above average. Finally, on the morning we were checking out, Auser helped my husband get his resume printed in his office because the one in the business center wasn't working right. Talk about above and beyond! Should we have to return to Houston for anything else, this is where we will be staying!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108010-r159491997-Comfort_Inn_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>159491997</t>
+  </si>
+  <si>
+    <t>05/02/2013</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t>We went to the NHRA races in Baytown. Our friend had stayed here before. I have to admit, it was nicer than expected and was in an area that I was unsure about. The place was clean, the front desk staff was very friendly and helpful. The continental breakfast was not as "clean" but offered the usual. Afraid of the scrambled eggs and the coffee was dispensed from a machine with instant coffee ...totally nasty if you are a real coffee drinker. Overall it was a nice place, but not very convenient to our destination but that was our own fault. I would stay again if I needed to be in that area.  MoreShow less</t>
+  </si>
+  <si>
+    <t>We went to the NHRA races in Baytown. Our friend had stayed here before. I have to admit, it was nicer than expected and was in an area that I was unsure about. The place was clean, the front desk staff was very friendly and helpful. The continental breakfast was not as "clean" but offered the usual. Afraid of the scrambled eggs and the coffee was dispensed from a machine with instant coffee ...totally nasty if you are a real coffee drinker. Overall it was a nice place, but not very convenient to our destination but that was our own fault. I would stay again if I needed to be in that area.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108010-r147762418-Comfort_Inn_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>147762418</t>
+  </si>
+  <si>
+    <t>12/19/2012</t>
+  </si>
+  <si>
+    <t>Great affordable place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are currently staying at the hotel. Everything is good exept for the house keeping, they were on there phones standing in the middle of the hallway as we walked past, while we were eating breakfast 3 of them were sitting in the breakfast area eating and talking with no smile or anything all in uniforms they looked annyed we were there. Besides that we enjoyed our stay so far as we checkout tomorrow! Front desk was helpful! </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108010-r118664559-Comfort_Inn_East-Houston_Texas.html</t>
   </si>
   <si>
@@ -403,6 +550,51 @@
   </si>
   <si>
     <t>March 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108010-r72337219-Comfort_Inn_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>72337219</t>
+  </si>
+  <si>
+    <t>07/25/2010</t>
+  </si>
+  <si>
+    <t>Very decent hotel on Houston's east side area</t>
+  </si>
+  <si>
+    <t>Our son convinced us to join a frequent stayer program and so we picked Choice Hotels which is a good mid-range bet. The staff here are excellent and very helpful. Rooms are big and the bed was good. This hotel also offers a great bang for the buck.Recommended.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>gmtx427, Manager at Comfort Inn East, responded to this reviewResponded September 13, 2010</t>
+  </si>
+  <si>
+    <t>Responded September 13, 2010</t>
+  </si>
+  <si>
+    <t>Our son convinced us to join a frequent stayer program and so we picked Choice Hotels which is a good mid-range bet. The staff here are excellent and very helpful. Rooms are big and the bed was good. This hotel also offers a great bang for the buck.Recommended.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108010-r51161721-Comfort_Inn_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>51161721</t>
+  </si>
+  <si>
+    <t>12/13/2009</t>
+  </si>
+  <si>
+    <t>Lives Up To It's Name - c</t>
+  </si>
+  <si>
+    <t>Clean facility, friendly staff, basic room but seemed pretty quiet. Set far enough back from the highway that truck noise, etc. wasn't an issue. Our room with 2 queen beds still had plenty of room to move around in, unlike some I have stayed at (which seem to scale the rooms for one king bed then squeeze the queens in).Breakfast selection was a bit basic but there was plenty to eat. Yummy cookies served in the evening was a nice treat too.Besides the Luby's cafeteria next door, there is also a Mambo's Seafood just in front of the hotel (tasty low-cost seafood).</t>
+  </si>
+  <si>
+    <t>December 2009</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108010-r34039931-Comfort_Inn_East-Houston_Texas.html</t>
@@ -994,7 +1186,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1002,15 +1194,17 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -1112,16 +1306,24 @@
         <v>64</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s"/>
-      <c r="O4" t="s"/>
-      <c r="P4" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
@@ -1144,7 +1346,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1153,25 +1355,25 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
         <v>66</v>
-      </c>
-      <c r="J5" t="s">
-        <v>67</v>
-      </c>
-      <c r="K5" t="s">
-        <v>68</v>
-      </c>
-      <c r="L5" t="s">
-        <v>69</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>70</v>
-      </c>
-      <c r="O5" t="s">
-        <v>71</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1185,7 +1387,7 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -1201,7 +1403,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1210,38 +1412,28 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>70</v>
-      </c>
-      <c r="O6" t="s">
-        <v>71</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
@@ -1285,23 +1477,25 @@
         <v>82</v>
       </c>
       <c r="M7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N7" t="s">
         <v>83</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P7" t="s"/>
+        <v>84</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
       <c r="Q7" t="s"/>
       <c r="R7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1309,7 +1503,7 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8">
@@ -1352,24 +1546,14 @@
         <v>90</v>
       </c>
       <c r="O8" t="s">
-        <v>71</v>
-      </c>
-      <c r="P8" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>4</v>
-      </c>
-      <c r="R8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S8" t="n">
-        <v>5</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>4</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
@@ -1413,37 +1597,27 @@
         <v>95</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
         <v>96</v>
       </c>
       <c r="O9" t="s">
-        <v>97</v>
-      </c>
-      <c r="P9" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>4</v>
-      </c>
-      <c r="R9" t="n">
-        <v>3</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>4</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10">
@@ -1459,7 +1633,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1468,38 +1642,34 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" t="s">
         <v>100</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>101</v>
       </c>
-      <c r="K10" t="s">
-        <v>102</v>
-      </c>
-      <c r="L10" t="s">
-        <v>103</v>
-      </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="O10" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="P10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q10" t="n">
-        <v>5</v>
-      </c>
-      <c r="R10" t="n">
-        <v>5</v>
-      </c>
-      <c r="S10" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
         <v>5</v>
@@ -1510,7 +1680,7 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11">
@@ -1526,7 +1696,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -1535,53 +1705,43 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
+        <v>104</v>
+      </c>
+      <c r="J11" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11" t="s">
+        <v>106</v>
+      </c>
+      <c r="L11" t="s">
         <v>107</v>
       </c>
-      <c r="J11" t="s">
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
         <v>108</v>
       </c>
-      <c r="K11" t="s">
-        <v>109</v>
-      </c>
-      <c r="L11" t="s">
-        <v>110</v>
-      </c>
-      <c r="M11" t="n">
-        <v>5</v>
-      </c>
-      <c r="N11" t="s">
-        <v>111</v>
-      </c>
       <c r="O11" t="s">
-        <v>97</v>
-      </c>
-      <c r="P11" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>5</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
       <c r="R11" t="n">
-        <v>4</v>
-      </c>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s">
-        <v>112</v>
-      </c>
-      <c r="X11" t="s">
-        <v>113</v>
-      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12">
@@ -1597,7 +1757,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -1606,49 +1766,45 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J12" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="K12" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="L12" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="M12" t="n">
-        <v>2</v>
-      </c>
-      <c r="N12" t="s"/>
-      <c r="O12" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>115</v>
+      </c>
+      <c r="O12" t="s">
+        <v>66</v>
+      </c>
       <c r="P12" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q12" t="s"/>
       <c r="R12" t="n">
-        <v>3</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
-        <v>120</v>
-      </c>
-      <c r="X12" t="s">
-        <v>121</v>
-      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13">
@@ -1664,7 +1820,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -1673,35 +1829,31 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="J13" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="K13" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="L13" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="O13" t="s">
-        <v>71</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="n">
         <v>5</v>
       </c>
-      <c r="R13" t="n">
-        <v>5</v>
-      </c>
+      <c r="R13" t="s"/>
       <c r="S13" t="n">
         <v>5</v>
       </c>
@@ -1715,7 +1867,7 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14">
@@ -1731,7 +1883,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -1740,31 +1892,31 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="J14" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="K14" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="L14" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="O14" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="P14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R14" t="n">
         <v>5</v>
@@ -1774,7 +1926,7 @@
       </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1782,7 +1934,7 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15">
@@ -1798,7 +1950,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -1807,39 +1959,49 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="J15" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="K15" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="L15" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="O15" t="s">
-        <v>97</v>
-      </c>
-      <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
-      <c r="S15" t="s"/>
+        <v>84</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3</v>
+      </c>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16">
@@ -1855,7 +2017,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -1864,41 +2026,41 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
+        <v>138</v>
+      </c>
+      <c r="J16" t="s">
+        <v>139</v>
+      </c>
+      <c r="K16" t="s">
+        <v>140</v>
+      </c>
+      <c r="L16" t="s">
+        <v>141</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
         <v>142</v>
       </c>
-      <c r="J16" t="s">
-        <v>143</v>
-      </c>
-      <c r="K16" t="s">
-        <v>144</v>
-      </c>
-      <c r="L16" t="s">
-        <v>145</v>
-      </c>
-      <c r="M16" t="n">
-        <v>4</v>
-      </c>
-      <c r="N16" t="s">
-        <v>146</v>
-      </c>
       <c r="O16" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="P16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1906,7 +2068,667 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>38674</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>144</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>145</v>
+      </c>
+      <c r="J17" t="s">
+        <v>146</v>
+      </c>
+      <c r="K17" t="s">
         <v>147</v>
+      </c>
+      <c r="L17" t="s">
+        <v>148</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>38674</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>151</v>
+      </c>
+      <c r="J18" t="s">
+        <v>152</v>
+      </c>
+      <c r="K18" t="s">
+        <v>153</v>
+      </c>
+      <c r="L18" t="s">
+        <v>154</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>38674</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>155</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>156</v>
+      </c>
+      <c r="J19" t="s">
+        <v>157</v>
+      </c>
+      <c r="K19" t="s">
+        <v>158</v>
+      </c>
+      <c r="L19" t="s">
+        <v>159</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>160</v>
+      </c>
+      <c r="O19" t="s">
+        <v>84</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>161</v>
+      </c>
+      <c r="X19" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>38674</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>164</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>165</v>
+      </c>
+      <c r="J20" t="s">
+        <v>166</v>
+      </c>
+      <c r="K20" t="s">
+        <v>167</v>
+      </c>
+      <c r="L20" t="s">
+        <v>168</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>169</v>
+      </c>
+      <c r="X20" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>38674</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>172</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>173</v>
+      </c>
+      <c r="J21" t="s">
+        <v>174</v>
+      </c>
+      <c r="K21" t="s">
+        <v>175</v>
+      </c>
+      <c r="L21" t="s">
+        <v>176</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>177</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>38674</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>178</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>179</v>
+      </c>
+      <c r="J22" t="s">
+        <v>180</v>
+      </c>
+      <c r="K22" t="s">
+        <v>181</v>
+      </c>
+      <c r="L22" t="s">
+        <v>182</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>183</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>184</v>
+      </c>
+      <c r="X22" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>38674</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>188</v>
+      </c>
+      <c r="J23" t="s">
+        <v>189</v>
+      </c>
+      <c r="K23" t="s">
+        <v>190</v>
+      </c>
+      <c r="L23" t="s">
+        <v>191</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>192</v>
+      </c>
+      <c r="O23" t="s">
+        <v>84</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>38674</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>193</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>194</v>
+      </c>
+      <c r="J24" t="s">
+        <v>195</v>
+      </c>
+      <c r="K24" t="s">
+        <v>196</v>
+      </c>
+      <c r="L24" t="s">
+        <v>197</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>198</v>
+      </c>
+      <c r="O24" t="s">
+        <v>84</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>38674</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>199</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>200</v>
+      </c>
+      <c r="J25" t="s">
+        <v>201</v>
+      </c>
+      <c r="K25" t="s">
+        <v>202</v>
+      </c>
+      <c r="L25" t="s">
+        <v>203</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>204</v>
+      </c>
+      <c r="O25" t="s">
+        <v>84</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>38674</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>206</v>
+      </c>
+      <c r="J26" t="s">
+        <v>207</v>
+      </c>
+      <c r="K26" t="s">
+        <v>208</v>
+      </c>
+      <c r="L26" t="s">
+        <v>209</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>210</v>
+      </c>
+      <c r="O26" t="s">
+        <v>84</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
